--- a/Document/0-0.プロジェクトと関連の専門用語.xlsx
+++ b/Document/0-0.プロジェクトと関連の専門用語.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\OneDrive\デスクトップ\tqworkspace\pre-employment-study\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CDA1DA-3E04-414A-B51D-A2DCFCCEBD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD167A44-2224-403D-ACCD-E9BFB1E1FB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25780" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -3151,7 +3151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -4007,7 +4007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528F6855-D3EC-4E79-A28B-0DD615FBE383}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
